--- a/Output_testing/R1_201907/Country/HKD/MN/CYPRUS_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/CYPRUS_201907_HKD_MN.xlsx
@@ -810,136 +810,453 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>69.207953</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>38.84503247369015</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>76.447271</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>9.51507101089611</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>115.53056</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>44.99124563705712</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>57.022553</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>49.16908017952999</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-1.206792835987069</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>25.601196</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>14.36943655861785</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>37.293124</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>4.641718643928492</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>32.757529</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>12.75681545819584</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>16.751871</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>14.44470731354563</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-9.659658261513149</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0.2388622003417858</v>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F20" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>0.156609899864958</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>6.27478</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>5.410581334878345</v>
+      </c>
+      <c r="K20" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>4.266673</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>2.394797766083574</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>6.743017</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0.8392750289631613</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>7.368544</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>2.869543548403672</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>5.471051</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>4.717546499282445</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>33.1430345864464</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>9.908353999999999</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>5.561359875660788</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>4.945585</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.6155562108348201</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>4.626832</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>1.801834380733516</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>3.526879</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>3.041137010026551</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>4.70484363352226</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>3.958186</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2.221650215646541</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>8.925458000000001</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.110914301633746</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>6.601507</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.570835136709733</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>2.525352</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>2.177546048657913</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-32.0773473351942</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>NON-ELECTRIC PARTS AND ACCESSORIES OF MACHINERY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>1.228619</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.6895991411968609</v>
+      </c>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F24" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G24" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H24" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>2.261534</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>1.950062575674806</v>
+      </c>
+      <c r="K24" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>1.025536</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.5756127366306918</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>0.551921</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.06869529073712509</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>1.483563</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.5777462461105475</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>2.032017</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.752155972377596</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>78.70751224866169</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>5.715495</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>3.207992423619489</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>6.034427</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.7510798052564724</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>3.778658</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.471528660957161</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>1.625305</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.401458680062799</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-37.70679857315932</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>3.21534</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1.804705692046041</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>627.945475</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>78.15773810416185</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>2.974001</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.158169834162091</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>1.606087</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.384887493169602</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-20.24535886402967</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>53.611311</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>30.09095091646623</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>34.185622</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>4.254940910600357</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>81.261189</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>31.64567119780536</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>16.874952</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>14.55083689279433</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-71.92394403573448</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1288,587 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>NON-ELECTRIC PARTS AND ACCESSORIES OF MACHINERY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>2.261534</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>60.78959428965409</v>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>0.690736</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>67.88460120981019</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>1.426631</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>83.86032439473571</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>1.537232</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>69.54246426364423</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>1.435088</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>38.57488646642108</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>87.86702186847496</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>2.062574016107871</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>1.550671026728795</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>0.3428192974059192</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>0.6355192439248279</v>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>17.97417228909013</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>18.99647671041705</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>14.17841181425571</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>12.14054414985972</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.4105927642797815</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>11.05634806366491</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>MEAT AND EDIBLE MEAT OFFAL, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>024</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>CHEESE AND CURD</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1900,447 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>69.207953</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>39.0681548907074</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>76.447271</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>9.535261077633576</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>115.53056</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>45.38190950413447</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>57.022553</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>50.7986441876962</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-1.206792835987069</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>25.601196</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>14.45197332617768</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>37.293124</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>4.651567925041596</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>32.757529</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>12.86758427083761</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>16.751871</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>14.9234344945444</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-9.659658261513149</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>0.2402342036091383</v>
+      </c>
+      <c r="E46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F46" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>0.1579697606164782</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>6.27478</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>5.589899080387937</v>
+      </c>
+      <c r="K46" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>4.266673</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>2.408553271789432</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>6.743017</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.8410558899600422</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>7.368544</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>2.894460106358292</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>5.471051</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>4.87389565110737</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>33.1430345864464</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>9.908353999999999</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>5.593303832927413</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>4.945585</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0.6168623619884148</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>4.626832</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>1.817479904146864</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>3.526879</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>3.141926518338416</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>4.70484363352226</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>1.025536</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.5789190050744097</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>0.551921</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.06884105554570551</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>1.483563</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.5827628794466352</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>2.032017</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.810226009458922</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>78.70751224866169</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>5.715495</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>3.226418847225025</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>6.034427</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.7526735244600313</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>3.778658</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.484306103970013</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>1.625305</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.447905890700537</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-37.70679857315932</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>3.21534</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1.815071761279909</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>627.945475</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>78.32358131716209</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>2.974001</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.168226348484811</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>1.606087</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.430785500738356</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-20.24535886402967</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>1.0779</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.6084786838976947</v>
+      </c>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.05973739375150957</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>3.354999</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.317887327859067</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>1.584325</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.411398783787737</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-28.8742985409652</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>LIGHTING FIXTURES AND FITTINGS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.2815824160216576</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>0.582892</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.07270406552594913</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>0.697761</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.2740896136703083</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>1.423644</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.268255825128499</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>491.7426273458445</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>56.203887</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>31.72730976129024</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>40.348055</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>5.032609187576085</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>81.599442</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>32.05332418047545</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>14.933604</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>13.30362805811162</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-75.30220620952144</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2372,483 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>22.545102</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>19.62721552673658</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>31.78674</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>22.90885296646812</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>32.411909</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>21.38837426809018</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>24.836812</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>28.0667469971365</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>17.5983746235209</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>23.250651</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>20.24144926529645</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>31.239726</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>22.51461740482828</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>55.484603</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>36.61387100279713</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>16.903991</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>19.1022921395416</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-63.20542036860988</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>19.574244</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>17.04085906379711</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>20.100999</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>14.48688448611348</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>24.010302</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>15.84421718158823</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>10.39328</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>11.74488739659497</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-22.96378565311986</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>6.25787</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>5.447948881681664</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>8.971090999999999</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>6.465507462162067</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>10.51388</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>6.938030106458339</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>8.302046000000001</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>9.381696195171468</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>21.45834646979072</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES OF THE MOTOR VEHICLES OF GROUPS 722, 781, 782 AND 783</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>6.69018</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>7.560213018695904</v>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>1.316531</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>1.146139755084277</v>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>3.602781</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>4.071309265178253</v>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>12.767731</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>11.11527497743838</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>12.097317</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>8.718593238619475</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>6.325046</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>4.173850145972171</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>2.915227</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>3.294341425470436</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-40.49401026485145</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>059</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT JUICES AND VEGETABLE JUICES, UNFERMENTED AND NOT CONTAINING ADDED SPIRIT</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.4339706152705071</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>2.208934</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>1.591989119319323</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>1.412295</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.9319628176468229</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>2.641982</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>2.985561929807605</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>247.747719288547</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>2.188179</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>1.57703089323766</v>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>2.182147</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>2.465927098838628</v>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>793</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>SHIPS, BOATS (INCLUDING HOVERCRAFT) AND FLOATING STRUCTURES</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>1.5444</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.745243474177669</v>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>28.655917</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>24.94714191469503</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>30.104991</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>21.69680855526065</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>21.32633</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>14.07308430382177</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>8.479105000000001</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>9.581781059386971</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-35.08516989728594</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
